--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H2">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I2">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J2">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1255736666666667</v>
+        <v>0.269425</v>
       </c>
       <c r="N2">
-        <v>0.376721</v>
+        <v>0.808275</v>
       </c>
       <c r="O2">
-        <v>0.001033454989242071</v>
+        <v>0.001422789942571399</v>
       </c>
       <c r="P2">
-        <v>0.001033930111038535</v>
+        <v>0.001425737909526887</v>
       </c>
       <c r="Q2">
-        <v>0.1468455109368889</v>
+        <v>0.1857228250583333</v>
       </c>
       <c r="R2">
-        <v>1.321609598432</v>
+        <v>1.671505425525</v>
       </c>
       <c r="S2">
-        <v>2.894336817586634E-05</v>
+        <v>2.425752518378029E-05</v>
       </c>
       <c r="T2">
-        <v>2.917726936793027E-05</v>
+        <v>2.46137036563919E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H3">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I3">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J3">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.013146</v>
       </c>
       <c r="O3">
-        <v>3.606329163645316E-05</v>
+        <v>2.314063479019345E-05</v>
       </c>
       <c r="P3">
-        <v>3.607987141601499E-05</v>
+        <v>2.318858131037142E-05</v>
       </c>
       <c r="Q3">
-        <v>0.005124299114666666</v>
+        <v>0.003020645520666667</v>
       </c>
       <c r="R3">
-        <v>0.046118692032</v>
+        <v>0.027185809686</v>
       </c>
       <c r="S3">
-        <v>1.010003472171551E-06</v>
+        <v>3.945308540607785E-07</v>
       </c>
       <c r="T3">
-        <v>1.018165653390205E-06</v>
+        <v>4.003238356585666E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H4">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I4">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J4">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.239166</v>
+        <v>105.458496</v>
       </c>
       <c r="N4">
-        <v>216.717498</v>
+        <v>316.375488</v>
       </c>
       <c r="O4">
-        <v>0.5945189664610112</v>
+        <v>0.5569092974575712</v>
       </c>
       <c r="P4">
-        <v>0.5947922913008128</v>
+        <v>0.5580631924613143</v>
       </c>
       <c r="Q4">
-        <v>84.47628808262398</v>
+        <v>72.69574020051201</v>
       </c>
       <c r="R4">
-        <v>760.286592743616</v>
+        <v>654.261661804608</v>
       </c>
       <c r="S4">
-        <v>0.01665034424618372</v>
+        <v>0.009494895138029483</v>
       </c>
       <c r="T4">
-        <v>0.01678490133517879</v>
+        <v>0.00963431073060329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H5">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I5">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J5">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1675105</v>
+        <v>1.1746305</v>
       </c>
       <c r="N5">
-        <v>0.335021</v>
+        <v>2.349261</v>
       </c>
       <c r="O5">
-        <v>0.001378589688194451</v>
+        <v>0.006203034097198158</v>
       </c>
       <c r="P5">
-        <v>0.0009194823217453794</v>
+        <v>0.004143924366178645</v>
       </c>
       <c r="Q5">
-        <v>0.1958863320053333</v>
+        <v>0.8097084341085</v>
       </c>
       <c r="R5">
-        <v>1.175317992032</v>
+        <v>4.858250604651</v>
       </c>
       <c r="S5">
-        <v>3.860935340602297E-05</v>
+        <v>0.0001057571826496666</v>
       </c>
       <c r="T5">
-        <v>2.594757913923929E-05</v>
+        <v>7.154002544371519E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.169397333333333</v>
+        <v>0.6893303333333334</v>
       </c>
       <c r="H6">
-        <v>3.508192</v>
+        <v>2.067991</v>
       </c>
       <c r="I6">
-        <v>0.02800641390012855</v>
+        <v>0.0170492666963472</v>
       </c>
       <c r="J6">
-        <v>0.02821976945677986</v>
+        <v>0.0172638347426419</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.97196566666668</v>
+        <v>82.45692966666667</v>
       </c>
       <c r="N6">
-        <v>146.915897</v>
+        <v>247.370789</v>
       </c>
       <c r="O6">
-        <v>0.4030329255699159</v>
+        <v>0.4354417378678688</v>
       </c>
       <c r="P6">
-        <v>0.4032182163949873</v>
+        <v>0.4363439566816698</v>
       </c>
       <c r="Q6">
-        <v>57.26768605869156</v>
+        <v>56.84006281276656</v>
       </c>
       <c r="R6">
-        <v>515.4091745282241</v>
+        <v>511.5605653148991</v>
       </c>
       <c r="S6">
-        <v>0.01128750692889077</v>
+        <v>0.007423962319630202</v>
       </c>
       <c r="T6">
-        <v>0.01137872510744052</v>
+        <v>0.007532969959102843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H7">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I7">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J7">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1255736666666667</v>
+        <v>0.269425</v>
       </c>
       <c r="N7">
-        <v>0.376721</v>
+        <v>0.808275</v>
       </c>
       <c r="O7">
-        <v>0.001033454989242071</v>
+        <v>0.001422789942571399</v>
       </c>
       <c r="P7">
-        <v>0.001033930111038535</v>
+        <v>0.001425737909526887</v>
       </c>
       <c r="Q7">
-        <v>0.4044980624982222</v>
+        <v>0.8678721692333332</v>
       </c>
       <c r="R7">
-        <v>3.640482562484001</v>
+        <v>7.810849523099999</v>
       </c>
       <c r="S7">
-        <v>7.972689307705357E-05</v>
+        <v>0.0001133540317129426</v>
       </c>
       <c r="T7">
-        <v>8.037119318811754E-05</v>
+        <v>0.0001150184334016557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H8">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I8">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J8">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.013146</v>
       </c>
       <c r="O8">
-        <v>3.606329163645316E-05</v>
+        <v>2.314063479019345E-05</v>
       </c>
       <c r="P8">
-        <v>3.607987141601499E-05</v>
+        <v>2.318858131037142E-05</v>
       </c>
       <c r="Q8">
-        <v>0.01411530424266667</v>
+        <v>0.01411530424266666</v>
       </c>
       <c r="R8">
         <v>0.127037738184</v>
       </c>
       <c r="S8">
-        <v>2.78213780593847E-06</v>
+        <v>1.843620179887221E-06</v>
       </c>
       <c r="T8">
-        <v>2.804621206810858E-06</v>
+        <v>1.870690452504613E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H9">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I9">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J9">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>72.239166</v>
+        <v>105.458496</v>
       </c>
       <c r="N9">
-        <v>216.717498</v>
+        <v>316.375488</v>
       </c>
       <c r="O9">
-        <v>0.5945189664610112</v>
+        <v>0.5569092974575712</v>
       </c>
       <c r="P9">
-        <v>0.5947922913008128</v>
+        <v>0.5580631924613143</v>
       </c>
       <c r="Q9">
-        <v>232.696897838088</v>
+        <v>339.703047926528</v>
       </c>
       <c r="R9">
-        <v>2094.272080542793</v>
+        <v>3057.327431338752</v>
       </c>
       <c r="S9">
-        <v>0.04586474550389433</v>
+        <v>0.04436910346101228</v>
       </c>
       <c r="T9">
-        <v>0.04623539409537423</v>
+        <v>0.04502058457386945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H10">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I10">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J10">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1675105</v>
+        <v>1.1746305</v>
       </c>
       <c r="N10">
-        <v>0.335021</v>
+        <v>2.349261</v>
       </c>
       <c r="O10">
-        <v>0.001378589688194451</v>
+        <v>0.006203034097198158</v>
       </c>
       <c r="P10">
-        <v>0.0009194823217453794</v>
+        <v>0.004143924366178645</v>
       </c>
       <c r="Q10">
-        <v>0.5395850459473334</v>
+        <v>3.783721332773999</v>
       </c>
       <c r="R10">
-        <v>3.237510275684</v>
+        <v>22.702327996644</v>
       </c>
       <c r="S10">
-        <v>0.0001063526460387166</v>
+        <v>0.0004941972829098624</v>
       </c>
       <c r="T10">
-        <v>7.147474527057511E-05</v>
+        <v>0.0003343024587814878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.221201333333334</v>
+        <v>3.221201333333333</v>
       </c>
       <c r="H11">
-        <v>9.663604000000001</v>
+        <v>9.663603999999999</v>
       </c>
       <c r="I11">
-        <v>0.07714597530321542</v>
+        <v>0.07967025090722712</v>
       </c>
       <c r="J11">
-        <v>0.07773368076821786</v>
+        <v>0.08067291515017869</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.97196566666668</v>
+        <v>82.45692966666667</v>
       </c>
       <c r="N11">
-        <v>146.915897</v>
+        <v>247.370789</v>
       </c>
       <c r="O11">
-        <v>0.4030329255699159</v>
+        <v>0.4354417378678688</v>
       </c>
       <c r="P11">
-        <v>0.4032182163949873</v>
+        <v>0.4363439566816698</v>
       </c>
       <c r="Q11">
-        <v>157.7485611014209</v>
+        <v>265.6103717848395</v>
       </c>
       <c r="R11">
-        <v>1419.737049912789</v>
+        <v>2390.493346063556</v>
       </c>
       <c r="S11">
-        <v>0.03109236812239939</v>
+        <v>0.03469175251141213</v>
       </c>
       <c r="T11">
-        <v>0.03134363611317813</v>
+        <v>0.03520113899367359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H12">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I12">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J12">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1255736666666667</v>
+        <v>0.269425</v>
       </c>
       <c r="N12">
-        <v>0.376721</v>
+        <v>0.808275</v>
       </c>
       <c r="O12">
-        <v>0.001033454989242071</v>
+        <v>0.001422789942571399</v>
       </c>
       <c r="P12">
-        <v>0.001033930111038535</v>
+        <v>0.001425737909526887</v>
       </c>
       <c r="Q12">
-        <v>1.767033918786111</v>
+        <v>5.068817717816666</v>
       </c>
       <c r="R12">
-        <v>15.903305269075</v>
+        <v>45.61935946035</v>
       </c>
       <c r="S12">
-        <v>0.0003482838049618752</v>
+        <v>0.0006620455692686679</v>
       </c>
       <c r="T12">
-        <v>0.0003510984047231105</v>
+        <v>0.0006717665271106109</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H13">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I13">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J13">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.013146</v>
       </c>
       <c r="O13">
-        <v>3.606329163645316E-05</v>
+        <v>2.314063479019345E-05</v>
       </c>
       <c r="P13">
-        <v>3.607987141601499E-05</v>
+        <v>2.318858131037142E-05</v>
       </c>
       <c r="Q13">
-        <v>0.06166215288333333</v>
+        <v>0.08244060216933331</v>
       </c>
       <c r="R13">
-        <v>0.55495937595</v>
+        <v>0.741965419524</v>
       </c>
       <c r="S13">
-        <v>1.215365987037838E-05</v>
+        <v>1.076768556939892E-05</v>
       </c>
       <c r="T13">
-        <v>1.225187772513348E-05</v>
+        <v>1.092578981831195E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H14">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I14">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J14">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>72.239166</v>
+        <v>105.458496</v>
       </c>
       <c r="N14">
-        <v>216.717498</v>
+        <v>316.375488</v>
       </c>
       <c r="O14">
-        <v>0.5945189664610112</v>
+        <v>0.5569092974575712</v>
       </c>
       <c r="P14">
-        <v>0.5947922913008128</v>
+        <v>0.5580631924613143</v>
       </c>
       <c r="Q14">
-        <v>1016.52727020915</v>
+        <v>1984.039688295808</v>
       </c>
       <c r="R14">
-        <v>9148.745431882349</v>
+        <v>17856.35719466227</v>
       </c>
       <c r="S14">
-        <v>0.2003583415983117</v>
+        <v>0.2591382760268629</v>
       </c>
       <c r="T14">
-        <v>0.2019775054307668</v>
+        <v>0.2629432592084189</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H15">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I15">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J15">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1675105</v>
+        <v>1.1746305</v>
       </c>
       <c r="N15">
-        <v>0.335021</v>
+        <v>2.349261</v>
       </c>
       <c r="O15">
-        <v>0.001378589688194451</v>
+        <v>0.006203034097198158</v>
       </c>
       <c r="P15">
-        <v>0.0009194823217453794</v>
+        <v>0.004143924366178645</v>
       </c>
       <c r="Q15">
-        <v>2.357156106929167</v>
+        <v>22.098869408139</v>
       </c>
       <c r="R15">
-        <v>14.142936641575</v>
+        <v>132.593216448834</v>
       </c>
       <c r="S15">
-        <v>0.0004645973623270235</v>
+        <v>0.002886365103657196</v>
       </c>
       <c r="T15">
-        <v>0.0003122346209761102</v>
+        <v>0.001952497483215986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.07169166666667</v>
+        <v>18.81346466666666</v>
       </c>
       <c r="H16">
-        <v>42.215075</v>
+        <v>56.440394</v>
       </c>
       <c r="I16">
-        <v>0.3370091669084729</v>
+        <v>0.4653150471897188</v>
       </c>
       <c r="J16">
-        <v>0.3395765351784256</v>
+        <v>0.4711711196158964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.97196566666668</v>
+        <v>82.45692966666667</v>
       </c>
       <c r="N16">
-        <v>146.915897</v>
+        <v>247.370789</v>
       </c>
       <c r="O16">
-        <v>0.4030329255699159</v>
+        <v>0.4354417378678688</v>
       </c>
       <c r="P16">
-        <v>0.4032182163949873</v>
+        <v>0.4363439566816698</v>
       </c>
       <c r="Q16">
-        <v>689.1184011719196</v>
+        <v>1551.300532805652</v>
       </c>
       <c r="R16">
-        <v>6202.065610547276</v>
+        <v>13961.70479525087</v>
       </c>
       <c r="S16">
-        <v>0.1358257904830019</v>
+        <v>0.2026175928043606</v>
       </c>
       <c r="T16">
-        <v>0.1369234448442344</v>
+        <v>0.2055926706073326</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H17">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I17">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J17">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1255736666666667</v>
+        <v>0.269425</v>
       </c>
       <c r="N17">
-        <v>0.376721</v>
+        <v>0.808275</v>
       </c>
       <c r="O17">
-        <v>0.001033454989242071</v>
+        <v>0.001422789942571399</v>
       </c>
       <c r="P17">
-        <v>0.001033930111038535</v>
+        <v>0.001425737909526887</v>
       </c>
       <c r="Q17">
-        <v>0.1189254828191667</v>
+        <v>0.4061707157624999</v>
       </c>
       <c r="R17">
-        <v>0.7135528969150001</v>
+        <v>2.437024294575</v>
       </c>
       <c r="S17">
-        <v>2.344030820395424E-05</v>
+        <v>5.305054111377152E-05</v>
       </c>
       <c r="T17">
-        <v>1.575315819910576E-05</v>
+        <v>3.588632909836727E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H18">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I18">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J18">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.013146</v>
       </c>
       <c r="O18">
-        <v>3.606329163645316E-05</v>
+        <v>2.314063479019345E-05</v>
       </c>
       <c r="P18">
-        <v>3.607987141601499E-05</v>
+        <v>2.318858131037142E-05</v>
       </c>
       <c r="Q18">
-        <v>0.004150005965000001</v>
+        <v>0.006606068762999999</v>
       </c>
       <c r="R18">
-        <v>0.02490003579</v>
+        <v>0.039636412578</v>
       </c>
       <c r="S18">
-        <v>8.179695096614803E-07</v>
+        <v>8.628281382965456E-07</v>
       </c>
       <c r="T18">
-        <v>5.497198661222612E-07</v>
+        <v>5.83664819927792E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H19">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I19">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J19">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>72.239166</v>
+        <v>105.458496</v>
       </c>
       <c r="N19">
-        <v>216.717498</v>
+        <v>316.375488</v>
       </c>
       <c r="O19">
-        <v>0.5945189664610112</v>
+        <v>0.5569092974575712</v>
       </c>
       <c r="P19">
-        <v>0.5947922913008128</v>
+        <v>0.5580631924613143</v>
       </c>
       <c r="Q19">
-        <v>68.414643954045</v>
+        <v>158.983586540064</v>
       </c>
       <c r="R19">
-        <v>410.4878637242701</v>
+        <v>953.901519240384</v>
       </c>
       <c r="S19">
-        <v>0.01348458128511508</v>
+        <v>0.02076507479946</v>
       </c>
       <c r="T19">
-        <v>0.009062369845345459</v>
+        <v>0.01404664858003099</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H20">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I20">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J20">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1675105</v>
+        <v>1.1746305</v>
       </c>
       <c r="N20">
-        <v>0.335021</v>
+        <v>2.349261</v>
       </c>
       <c r="O20">
-        <v>0.001378589688194451</v>
+        <v>0.006203034097198158</v>
       </c>
       <c r="P20">
-        <v>0.0009194823217453794</v>
+        <v>0.004143924366178645</v>
       </c>
       <c r="Q20">
-        <v>0.15864207535375</v>
+        <v>1.77081009906825</v>
       </c>
       <c r="R20">
-        <v>0.6345683014150001</v>
+        <v>7.083240396272999</v>
       </c>
       <c r="S20">
-        <v>3.126848049934948E-05</v>
+        <v>0.000231288052830064</v>
       </c>
       <c r="T20">
-        <v>1.400940965070334E-05</v>
+        <v>0.000104304046746416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9470575000000001</v>
+        <v>1.5075465</v>
       </c>
       <c r="H21">
-        <v>1.894115</v>
+        <v>3.015093</v>
       </c>
       <c r="I21">
-        <v>0.02268149890218751</v>
+        <v>0.03728627784498787</v>
       </c>
       <c r="J21">
-        <v>0.01523619249591488</v>
+        <v>0.02517035484472436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>48.97196566666668</v>
+        <v>82.45692966666667</v>
       </c>
       <c r="N21">
-        <v>146.915897</v>
+        <v>247.370789</v>
       </c>
       <c r="O21">
-        <v>0.4030329255699159</v>
+        <v>0.4354417378678688</v>
       </c>
       <c r="P21">
-        <v>0.4032182163949873</v>
+        <v>0.4363439566816698</v>
       </c>
       <c r="Q21">
-        <v>46.37926737435918</v>
+        <v>124.3076557197295</v>
       </c>
       <c r="R21">
-        <v>278.2756042461551</v>
+        <v>745.845934318377</v>
       </c>
       <c r="S21">
-        <v>0.009141390858859467</v>
+        <v>0.01623600162344573</v>
       </c>
       <c r="T21">
-        <v>0.006143510362853486</v>
+        <v>0.01098293222402866</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H22">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I22">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J22">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1255736666666667</v>
+        <v>0.269425</v>
       </c>
       <c r="N22">
-        <v>0.376721</v>
+        <v>0.808275</v>
       </c>
       <c r="O22">
-        <v>0.001033454989242071</v>
+        <v>0.001422789942571399</v>
       </c>
       <c r="P22">
-        <v>0.001033930111038535</v>
+        <v>0.001425737909526887</v>
       </c>
       <c r="Q22">
-        <v>2.805978491146</v>
+        <v>4.364719396591667</v>
       </c>
       <c r="R22">
-        <v>25.253806420314</v>
+        <v>39.282474569325</v>
       </c>
       <c r="S22">
-        <v>0.0005530606148233218</v>
+        <v>0.0005700822752922367</v>
       </c>
       <c r="T22">
-        <v>0.000557530085560271</v>
+        <v>0.0005784529162598613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H23">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I23">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J23">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.013146</v>
       </c>
       <c r="O23">
-        <v>3.606329163645316E-05</v>
+        <v>2.314063479019345E-05</v>
       </c>
       <c r="P23">
-        <v>3.607987141601499E-05</v>
+        <v>2.318858131037142E-05</v>
       </c>
       <c r="Q23">
-        <v>0.09791700819599999</v>
+        <v>0.07098895943533334</v>
       </c>
       <c r="R23">
-        <v>0.881253073764</v>
+        <v>0.6389006349180001</v>
       </c>
       <c r="S23">
-        <v>1.929952097830328E-05</v>
+        <v>9.27197004854999E-06</v>
       </c>
       <c r="T23">
-        <v>1.945548696455818E-05</v>
+        <v>9.408112383968497E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H24">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I24">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J24">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>72.239166</v>
+        <v>105.458496</v>
       </c>
       <c r="N24">
-        <v>216.717498</v>
+        <v>316.375488</v>
       </c>
       <c r="O24">
-        <v>0.5945189664610112</v>
+        <v>0.5569092974575712</v>
       </c>
       <c r="P24">
-        <v>0.5947922913008128</v>
+        <v>0.5580631924613143</v>
       </c>
       <c r="Q24">
-        <v>1614.204246758148</v>
+        <v>1708.441098734657</v>
       </c>
       <c r="R24">
-        <v>14527.83822082333</v>
+        <v>15375.96988861191</v>
       </c>
       <c r="S24">
-        <v>0.3181609538275064</v>
+        <v>0.2231419480322065</v>
       </c>
       <c r="T24">
-        <v>0.3207321205941475</v>
+        <v>0.2264183893683917</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H25">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I25">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J25">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.1675105</v>
+        <v>1.1746305</v>
       </c>
       <c r="N25">
-        <v>0.335021</v>
+        <v>2.349261</v>
       </c>
       <c r="O25">
-        <v>0.001378589688194451</v>
+        <v>0.006203034097198158</v>
       </c>
       <c r="P25">
-        <v>0.0009194823217453794</v>
+        <v>0.004143924366178645</v>
       </c>
       <c r="Q25">
-        <v>3.743068690419</v>
+        <v>19.0291640611605</v>
       </c>
       <c r="R25">
-        <v>22.458412142514</v>
+        <v>114.174984366963</v>
       </c>
       <c r="S25">
-        <v>0.0007377618459233389</v>
+        <v>0.002485426475151369</v>
       </c>
       <c r="T25">
-        <v>0.0004958159667087514</v>
+        <v>0.00168128035199104</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.345278</v>
+        <v>16.20012766666667</v>
       </c>
       <c r="H26">
-        <v>67.03583399999999</v>
+        <v>48.60038300000001</v>
       </c>
       <c r="I26">
-        <v>0.5351569449859956</v>
+        <v>0.4006791573617189</v>
       </c>
       <c r="J26">
-        <v>0.5392338221006618</v>
+        <v>0.4057217756465588</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>48.97196566666668</v>
+        <v>82.45692966666667</v>
       </c>
       <c r="N26">
-        <v>146.915897</v>
+        <v>247.370789</v>
       </c>
       <c r="O26">
-        <v>0.4030329255699159</v>
+        <v>0.4354417378678688</v>
       </c>
       <c r="P26">
-        <v>0.4032182163949873</v>
+        <v>0.4363439566816698</v>
       </c>
       <c r="Q26">
-        <v>1094.292187028122</v>
+        <v>1335.812787601354</v>
       </c>
       <c r="R26">
-        <v>9848.629683253099</v>
+        <v>12022.31508841219</v>
       </c>
       <c r="S26">
-        <v>0.2156858691767644</v>
+        <v>0.1744724286090202</v>
       </c>
       <c r="T26">
-        <v>0.2174288999672807</v>
+        <v>0.1770342448975322</v>
       </c>
     </row>
   </sheetData>
